--- a/biology/Zoologie/Araecerus/Araecerus.xlsx
+++ b/biology/Zoologie/Araecerus/Araecerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araecerus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes), de la famille des Anthribidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Araecerus coffeae (Fabricius, 1801) ;
